--- a/智慧园区功能需求确认清单V1.0(1).xlsx
+++ b/智慧园区功能需求确认清单V1.0(1).xlsx
@@ -887,10 +887,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -942,37 +942,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1007,6 +984,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
@@ -1027,30 +1027,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1078,6 +1054,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,6 +1141,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1160,30 +1184,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,24 +1214,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1298,6 +1280,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1875,26 +1875,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1918,153 +1898,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3512,8 +3512,8 @@
   <sheetPr/>
   <dimension ref="A1:IU111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="E72" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
